--- a/faculty_call_reports.xlsx
+++ b/faculty_call_reports.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,20 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Hall Ticket No</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rank</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Exam Type</t>
         </is>
@@ -478,30 +488,44 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>neha</t>
+          <t>ak</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08008832044</t>
+          <t>9704755549</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Called</t>
+          <t>12354</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>intrested</t>
+          <t>365</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>Call Connected</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>hggffff</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>EAPCET</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -511,30 +535,44 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ak</t>
+          <t>neha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08008832044</t>
+          <t>8008832044</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">positive </t>
+          <t>3254</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>pppp</t>
+          <t>2365</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>Call Connected</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>hgfrdf</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>POLYCET</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -544,7 +582,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>rr</t>
+          <t>ak</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,349 +592,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>called</t>
+          <t>456</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ffdd</t>
+          <t>52444444</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ak</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ak</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>08008832044</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>Call Connected</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>he is intrested</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-05-13</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>POLYCET</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>anil</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>anil</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>8008832044</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Call Connected</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>erfes</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-05-13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>EAPCET</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>anil</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>anil</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>9704755549</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Call Connected</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>fhgfjhgfj</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-05-13</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>POLYCET</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>anil</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>anil</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>9704755549</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Call Connected</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>fhgfjhgfj</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-05-13</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>POLYCET</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>anil</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>anil</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>9704755549</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Call Connected</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>fhgfjhgfj</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-05-13</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>POLYCET</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>anil</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>rr</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>9704755549</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Call Connected</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>heloooo</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-05-13</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>EAPCET</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>anil</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>rr</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>9704755549</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Call Connected</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>heloooo</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-05-13</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>EAPCET</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>anil</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>kkkkk</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>9704755549</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Call Connected</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>gggggg</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-05-13</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>anil</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>buddi</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>9704755549</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Call Connected</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>hriiii</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-05-12</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>hhdffh</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>POLYCET</t>
         </is>

--- a/faculty_call_reports.xlsx
+++ b/faculty_call_reports.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,22 +461,27 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Exam Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Exam Type</t>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Call Date</t>
         </is>
       </c>
     </row>
@@ -488,7 +493,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ak</t>
+          <t>dsdfsf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,25 +508,30 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>325</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Call Connected</t>
+          <t>hvjvnvf</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>hggffff</t>
+          <t>Positive Response</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>bnnbn</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>EAPCET</t>
         </is>
@@ -535,42 +545,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>neha</t>
+          <t>anil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8008832044</t>
+          <t>9704755549</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3254</t>
+          <t>12354</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2365</t>
+          <t>325</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Call Connected</t>
+          <t>General</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>hgfrdf</t>
+          <t>Positive Response</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>xdfgdgdg</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>POLYCET</t>
+          <t>asdsfdsf</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
         </is>
       </c>
     </row>
@@ -592,32 +607,593 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>12354</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>EAPCET</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Positive Response</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>intrest to join</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>anil</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ak</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>9704755549</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12354</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>566555</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>POLYCET</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Positive Response</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>hgytrdtr</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>gartividi-1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>anil</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ak</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>9704755549</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12354</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>566555</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>POLYCET</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Positive Response</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>hgytrdtr</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>gartividi-1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>anil</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ak</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>9704755549</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12354</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>566555</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>POLYCET</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Positive Response</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>hgytrdtr</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>gartividi-1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>anil</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>neha</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8008832044</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5555</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>POLYCET</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Positive Response</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ghgh</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>xfgfv</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>anil</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>neha</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>8008832044</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5555</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>POLYCET</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Positive Response</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ghgh</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>xfgfv</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>anil</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ak</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>9704755549</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12354</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>EAPCET</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Call Connected</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>hggffff</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>anil</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>neha</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>8008832044</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3254</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2365</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>POLYCET</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Call Connected</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>hgfrdf</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>anil</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ak</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>9704755549</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>456</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>52444444</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>POLYCET</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>Call Connected</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>hhdffh</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
         <is>
           <t>2025-05-14</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>POLYCET</t>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>anil</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>neha</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>9704755549</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12354</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Positive Response</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>gfgfhfh</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>dffdxgfg</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>anil</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>neha</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>9704755549</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12354</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Positive Response</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>gfgfhfh</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>dffdxgfg</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>anil</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>neha</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>9704755549</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12354</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Positive Response</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>gfgfhfh</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>dffdxgfg</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
         </is>
       </c>
     </row>
